--- a/solutions/example1/prepare.xlsx
+++ b/solutions/example1/prepare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82cfe7acc6d68563/Documents/github/Autocoding-clinical-documents/solutions/solution1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82cfe7acc6d68563/Documents/github/Autocoding-clinical-documents/solutions/example1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{B25A5B03-319F-4E39-A0A4-656814EFBB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFDB1722-4FFC-4B3E-8E03-36ACD28795B8}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -1024,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2086,7 +2086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3403D3-073C-41DB-A780-73C68FEC4B62}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
